--- a/output/StructureDefinition-ConsentQualityControl.xlsx
+++ b/output/StructureDefinition-ConsentQualityControl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2025.1.0</t>
+    <t>2025.2.0</t>
   </si>
   <si>
     <t>Name</t>
